--- a/artifacts/recipes/new_data/allrecipescom/breakfast/breakfast_breakfast-cookies.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/breakfast/breakfast_breakfast-cookies.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699653539-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Breakfast Cookies</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699653552-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/iqqu7TMJOHqdpdcYy1avtWgqVuA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3913098-8954d4335a704556b496964151136780.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241345/chocolate-almond-coconut-breakfast-bars/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Chocolate Almond Coconut Breakfast Bars</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n9 \n\n\nYield:\n1 8-inch square pan"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup whole oats\n\n\n1 cup oat flour\n\n\n½ teaspoon salt\n\n\n½ teaspoon baking soda\n\n\n2  eggs\n\n\n½ cup dark chocolate-flavored almond milk\n\n\n½ cup brown sugar\n\n\n1 teaspoon vanilla extract, or to taste\n\n\n½ cup dry-roasted cocoa almonds\n\n\n½ cup semi-sweet chocolate chips\n\n\n½ cup shredded coconut"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup whole oats\n\n\n1 cup oat flour\n\n\n½ teaspoon salt\n\n\n½ teaspoon baking soda\n\n\n2  eggs\n\n\n½ cup dark chocolate-flavored almond milk\n\n\n½ cup brown sugar\n\n\n1 teaspoon vanilla extract, or to taste\n\n\n½ cup dry-roasted cocoa almonds\n\n\n½ cup semi-sweet chocolate chips\n\n\n½ cup shredded coconut'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease an 8-inch square baking dish."},{"recipe_directions":"Combine oats, oat flour, salt, and baking soda in a bowl. Add eggs, almond milk, brown sugar, and vanilla extract and mix well. Fold almonds, chocolate chips, and coconut into oats mixture; pour into the prepared baking dish."},{"recipe_directions":"Bake in the preheated oven until set in the middle, about 40 minutes. Cool before cutting into squares."},{"recipe_directions":"Add 1 cup of whole oats to food processor to make oat flour."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"280\nCalories\n\n\n10g \nFat\n\n\n44g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699653559-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Nv3dBSSZP0hb9tZbtEAo1EKOA1M=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1045418-e98a0e061aac4e4298b5d4314918ca1a.jpg"
@@ -266,59 +603,55 @@
 Maple Nut Granola Cookies</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/268692/maple-nut-granola-cookies/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Maple Nut Granola Cookies</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n24 \n\n\nYield:\n24 cookies"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups all-purpose flour\n\n\n1 ½ teaspoons baking powder\n\n\n1 teaspoon ground ginger\n\n\n½ teaspoon baking soda\n\n\n1 cup brown sugar\n\n\n½ cup butter\n\n\n2  eggs\n\n\n1 cup maple nut granola\n\n\n1 cup shredded coconut\n\n\n½ cup semisweet chocolate chips"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups all-purpose flour\n\n\n1 ½ teaspoons baking powder\n\n\n1 teaspoon ground ginger\n\n\n½ teaspoon baking soda\n\n\n1 cup brown sugar\n\n\n½ cup butter\n\n\n2  eggs\n\n\n1 cup maple nut granola\n\n\n1 cup shredded coconut\n\n\n½ cup semisweet chocolate chips'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Line a large cookie sheet with parchment paper."},{"recipe_directions":"Blend flour, baking powder, ginger, and baking soda together in a small bowl. Set aside."},{"recipe_directions":"Mix brown sugar and butter in another bowl to form a smooth paste. Add eggs; beat with an electric mixer on medium speed until creamy. Add flour mixture; beat until a smooth dough forms. Stir in granola, coconut, and chocolate chips."},{"recipe_directions":"Drop teaspoonfuls of dough 2 inches apart onto the cookie sheet."},{"recipe_directions":"Bake until lightly browned on top, about 10 minutes. Transfer to a wire rack to cool completely."},{"recipe_directions":"For these cookies, I used maple nut granola, which worked out well. Other varieties of granola would also work well in this recipe."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"159\nCalories\n\n\n9g \nFat\n\n\n18g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699653566-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -330,59 +663,55 @@
 Peanut Butter-Banana Breakfast Cookies</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273225/peanut-butter-banana-breakfast-cookies/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Peanut Butter-Banana Breakfast Cookies</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n60 \n\n\nYield:\n60 cookies"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 small ripe bananas, mashed\n\n\n½ cup vegetable oil\n\n\n½ cup natural peanut butter\n\n\n½ cup unsweetened applesauce\n\n\n½ cup unsweetened soy milk\n\n\n½ cup brown sugar\n\n\n2  eggs\n\n\n3 teaspoons ground ginger\n\n\n½ teaspoon almond extract\n\n\n1 cup whole wheat flour\n\n\n2 teaspoons baking powder\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon salt\n\n\n2 cups rolled oats\n\n\n¾ cup sunflower seeds"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 small ripe bananas, mashed\n\n\n½ cup vegetable oil\n\n\n½ cup natural peanut butter\n\n\n½ cup unsweetened applesauce\n\n\n½ cup unsweetened soy milk\n\n\n½ cup brown sugar\n\n\n2  eggs\n\n\n3 teaspoons ground ginger\n\n\n½ teaspoon almond extract\n\n\n1 cup whole wheat flour\n\n\n2 teaspoons baking powder\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon salt\n\n\n2 cups rolled oats\n\n\n¾ cup sunflower seeds'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Whisk together bananas, vegetable oil, peanut butter, applesauce, soy milk, brown sugar, eggs, ginger, and almond extract in a large bowl."},{"recipe_directions":"Stir whole wheat flour, baking powder, baking soda, and salt into the bowl with the banana mixture. Fold in oats and sesame seeds. Scrape the bowl using a rubber spatula to thoroughly combine."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease 4 or 5 cookie sheets, or bake in batches."},{"recipe_directions":"Use a small cookie scoop or spoon to drop tablespoon-sized mounds of dough onto the prepared cookie sheets."},{"recipe_directions":"Bake in the preheated oven until golden, about 15 minutes."},{"recipe_directions":"The batter should be thick but still pourable. If the batter is too wet and runs all over the cookie sheet, add some oat bran to thicken the batter."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"71\nCalories\n\n\n4g \nFat\n\n\n7g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699653572-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ajTllLLdkRQTQ3f7th5iZhycXvs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(767x0:769x2):format(webp)/5654489-c13c4b2b25eb4d38abb42e2177908b06.jpg"
@@ -395,59 +724,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/267597/chocolate-lava-power-cookie/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Chocolate Lava Power Cookie</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n12 mins\n\n\nAdditional Time:\n3 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n24 \n\n\nYield:\n2 dozen cookies"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup CARNATION BREAKFAST ESSENTIALS® Rich Milk Chocolate Powdered Drink Mix\n\n\n  cooking spray\n\n\n2  ripe avocados, mashed\n\n\n½ cup honey\n\n\n1 cup peanut butter\n\n\n2  eggs\n\n\n½ cup unsweetened cocoa powder\n\n\n1 teaspoon vanilla extract\n\n\n½ cup miniature semisweet chocolate chips"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup CARNATION BREAKFAST ESSENTIALS® Rich Milk Chocolate Powdered Drink Mix\n\n\n  cooking spray\n\n\n2  ripe avocados, mashed\n\n\n½ cup honey\n\n\n1 cup peanut butter\n\n\n2  eggs\n\n\n½ cup unsweetened cocoa powder\n\n\n1 teaspoon vanilla extract\n\n\n½ cup miniature semisweet chocolate chips'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line a baking sheet with aluminum foil; spray lightly with cooking spray."},{"recipe_directions":"Place avocados into a blender or food processor. Add honey and blend until a creamy mixture forms and no lumps remain."},{"recipe_directions":"Add peanut butter, eggs, cocoa powder, and drink mix to the blender. Process until smooth. Add vanilla extract. Scrape down sides and blend until no powder is present."},{"recipe_directions":"Pour batter into a large bowl. Mix in chocolate chips; batter will be sticky. Drop scoopfuls of batter onto the baking sheet. Press down slightly batter to make a cookie shape."},{"recipe_directions":"Bake until center is no longer soft, about 12 minutes. Cool for 3 to 5 minutes on baking sheet, then transfer to a rack. Store cooled cookies in the refrigerator."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Trusted Brands: Recipes and Tips"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"148\nCalories\n\n\n10g \nFat\n\n\n14g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699653585-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/gVZnOJJwmPx0dhJY1ViP8JLYNXY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2874056-ef658cb49fdd44aa836b88f874d8f6fa.jpg"
@@ -458,59 +783,55 @@
 Luciana's Breakfast Oatmeal Cookies</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273652/lucianas-breakfast-oatmeal-cookies/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Luciana's Breakfast Oatmeal Cookies</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n20 \n\n\nYield:\n20 cookies"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ teaspoons shortening (such as Crisco®), or as needed\n\n\n3 cups rolled oats\n\n\n1 cup white sugar\n\n\n1 cup all-purpose flour\n\n\n½ teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n¼ cup butter, melted and cooled\n\n\n2  eggs\n\n\n3 tablespoons milk\n\n\n1 teaspoon pure vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ teaspoons shortening (such as Crisco®), or as needed\n\n\n3 cups rolled oats\n\n\n1 cup white sugar\n\n\n1 cup all-purpose flour\n\n\n½ teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n¼ cup butter, melted and cooled\n\n\n2  eggs\n\n\n3 tablespoons milk\n\n\n1 teaspoon pure vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease 2 cookie sheets with shortening."},{"recipe_directions":"Stir oats, sugar, flour, baking soda, and salt in a medium bowl until combined."},{"recipe_directions":"Place butter, eggs, milk, and vanilla in a large bowl; mix well. Add the oat mixture to the butter mixture; stir until incorporated. Roll the dough into walnut-sized balls and place 2 inches apart on the prepared baking sheets."},{"recipe_directions":"Bake in the preheated oven until edges are golden, about 9 minutes."},{"recipe_directions":"Softened butter can be used instead of melted butter."}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"139\nCalories\n\n\n4g \nFat\n\n\n23g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699653591-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Y7GFu4xaQiO4c9xAakm5C9G5rtA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1250x0:1252x2):format(webp)/4497394-530a764bd7184c4487876f13dc1f45ae.jpg"
@@ -523,59 +844,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244257/almond-chia-breakfast-bars/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Almond Chia Breakfast Bars</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 8 hrs 10 mins\n\n\nTotal Time:\n 8 hrs 55 mins\n\n\nServings:\n24 \n\n\nYield:\n24 bars"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups water, divided\n\n\n2 cups chopped almonds\n\n\n1 pinch salt\n\n\n  cooking spray\n\n\n3 cups all-purpose flour\n\n\n⅔ cup chocolate chips\n\n\n⅔ cup olive oil\n\n\n⅔ cup chia seeds\n\n\n½ cup honey\n\n\n½ cup powdered peanut butter (such as PB2®)\n\n\n1 tablespoon ground cinnamon\n\n\n2 teaspoons vanilla extract\n\n\n2 teaspoons salt"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups water, divided\n\n\n2 cups chopped almonds\n\n\n1 pinch salt\n\n\n  cooking spray\n\n\n3 cups all-purpose flour\n\n\n⅔ cup chocolate chips\n\n\n⅔ cup olive oil\n\n\n⅔ cup chia seeds\n\n\n½ cup honey\n\n\n½ cup powdered peanut butter (such as PB2®)\n\n\n1 tablespoon ground cinnamon\n\n\n2 teaspoons vanilla extract\n\n\n2 teaspoons salt'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine 2 cup water, almonds, and 1 pinch salt together in a bowl; let sit for 8 hours to overnight. Drain and rinse 2 times."},{"recipe_directions":"Blend drained almonds and 2 cups water together in a blender until smooth, about 2 minutes. Transfer to a large bowl."},{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Spray an 11x15-inch baking dish with cooking spray."},{"recipe_directions":"Mix flour, chocolate chips, olive oil, chia seeds, honey, powdered peanut butter, cinnamon, vanilla extract, and 2 teaspoons salt into almond mixture until dough is evenly combined. Transfer dough to the prepared baking dish, leveling dough with a fork or spatula."},{"recipe_directions":"Bake in the preheated oven until cooked through and lightly browned, 30 to 40 minutes. Allow to cool for 10 minutes before cutting into bars."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"248\nCalories\n\n\n15g \nFat\n\n\n26g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699653597-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3ClLqcAQ7pW77bhc8Zc9JYmDoGM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(967x0:969x2):format(webp)/4542671-04e749f204b447428c3fb9f6990aa1e4.jpg"
@@ -588,59 +905,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/258327/honey-granola-breakfast-bars/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Honey Granola Breakfast Bars</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n12 \n\n\nYield:\n12 bars"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups old-fashioned oats\n\n\n1 cup chopped walnuts\n\n\n¾ cup brown sugar\n\n\n¾ cup dried fruit\n\n\n½ cup all-purpose flour\n\n\n½ cup whole wheat flour\n\n\n½ cup toasted wheat germ (Optional)\n\n\n¾ teaspoon ground cinnamon\n\n\n¾ teaspoon salt\n\n\n½ cup vegetable oil\n\n\n½ cup honey\n\n\n1  egg\n\n\n2 teaspoons vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups old-fashioned oats\n\n\n1 cup chopped walnuts\n\n\n¾ cup brown sugar\n\n\n¾ cup dried fruit\n\n\n½ cup all-purpose flour\n\n\n½ cup whole wheat flour\n\n\n½ cup toasted wheat germ (Optional)\n\n\n¾ teaspoon ground cinnamon\n\n\n¾ teaspoon salt\n\n\n½ cup vegetable oil\n\n\n½ cup honey\n\n\n1  egg\n\n\n2 teaspoons vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Line a 9x13-inch baking dish or jelly roll pan with parchment paper."},{"recipe_directions":"Mix oats, walnuts, brown sugar, dried fruit, all-purpose flour, whole wheat flour, wheat germ, cinnamon, and salt together in a bowl."},{"recipe_directions":"Whisk oil, honey, egg, and vanilla extract together in a separate bowl; stir into oats mixture until batter is just mixed. Spread batter into the prepared baking dish."},{"recipe_directions":"Bake in the preheated oven until golden brown around the edges, 20 to 25 minutes. Cool slightly on a wire rack; cut into 12 bars while still warm using a pizza cutter."},{"recipe_directions":"Any variety of dried fruit and nuts can be used. Substitute quinoa or another grain for the wheat germ if desired."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"376\nCalories\n\n\n17g \nFat\n\n\n52g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699653603-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lKGGQdKq7NqBReFqhJa7OoDUm5w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/276671banana-oatmeal-breakfast-cookiesTammyLynn4x3-a6b78ab632a2487a96271962ef039e4a.jpg"
@@ -654,59 +967,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/276671/banana-oatmeal-breakfast-cookies/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Banana-Oatmeal Breakfast Cookies</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n36 \n\n\nYield:\n36 cookies"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup packed brown sugar\n\n\n1 cup mashed ripe banana, divided\n\n\n1 teaspoon vanilla extract\n\n\n¾ cup all-purpose flour\n\n\n1 scoop cake-flavored 100% whey protein powder (such as Optimum Nutrition™ Gold Standard 100% Whey™) \n\n\n1 teaspoon salt\n\n\n1 teaspoon ground cinnamon\n\n\n½ teaspoon baking soda\n\n\n¼ teaspoon ground cloves\n\n\n3 cups rolled oats"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup packed brown sugar\n\n\n1 cup mashed ripe banana, divided\n\n\n1 teaspoon vanilla extract\n\n\n¾ cup all-purpose flour\n\n\n1 scoop cake-flavored 100% whey protein powder (such as Optimum Nutrition™ Gold Standard 100% Whey™) \n\n\n1 teaspoon salt\n\n\n1 teaspoon ground cinnamon\n\n\n½ teaspoon baking soda\n\n\n¼ teaspoon ground cloves\n\n\n3 cups rolled oats'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease cookie sheets."},{"recipe_directions":"Cream brown sugar and 3/4 cup banana together in a large bowl using an electric mixer. Beat in remaining banana. Stir in vanilla extract."},{"recipe_directions":"Combine flour, protein powder, salt, cinnamon, baking soda, and cloves in another bowl; stir into banana mixture. Mix in rolled oats."},{"recipe_directions":"Drop by rounded tablespoonfuls onto the prepared cookie sheets; leave room for spreading."},{"recipe_directions":"Bake in the preheated oven until edges are set and golden, 8 to 10 minutes. Let cookies cool on the sheets for 5 minutes before transferring to a wire rack to cool completely."},{"recipe_directions":"Using a different protein powder will change the nutritional information. You can omit the protein powder and increase flour to 1 cup. You can also omit the cloves and increase the cinnamon by 1/4 teaspoon if you'd like."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"67\nCalories\n\n\n1g \nFat\n\n\n14g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699653609-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DK5ePjFrrtGpgddJ68L5qpq3xX4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/5641369-89dab048fcc44a8c89b52f3c4facbe9e.jpg"
@@ -719,59 +1028,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/267563/pumpkin-spice-protein-breakfast-cookie/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Pumpkin Spice Protein Breakfast Cookie</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n1 \n\n\nYield:\n1 large cookie"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅓ cup rolled oats\n\n\n¼ cup canned pumpkin\n\n\n3 tablespoons nonfat dry milk powder\n\n\n2 tablespoons soy protein isolate\n\n\n1 tablespoon all-purpose flour\n\n\n1 tablespoon granular sucralose sweetener (such as Splenda®)\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon baking powder"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup rolled oats\n\n\n¼ cup canned pumpkin\n\n\n3 tablespoons nonfat dry milk powder\n\n\n2 tablespoons soy protein isolate\n\n\n1 tablespoon all-purpose flour\n\n\n1 tablespoon granular sucralose sweetener (such as Splenda®)\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon baking powder'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Mix oats, pumpkin, milk powder, soy protein isolate, flour, sucralose sweetener, cinnamon, and baking powder together in a medium bowl. Flatten dough out onto the baking sheet to form 1 large cookie, or scoop dough into smaller cookies."},{"recipe_directions":"Bake in the preheated oven until edges are golden, about 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"284\nCalories\n\n\n3g \nFat\n\n\n43g \nCarbs\n\n\n25g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699653614-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hmmjswRaB_l1BGb4bC4t5MboGeA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1049427-ae645ab523a4460ab30b8ade9326f45a.jpg"
@@ -784,59 +1089,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/276675/granola-breakfast-cookies/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Granola Breakfast Cookies</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n22 \n\n\nYield:\n22 cookies"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups all-purpose flour\n\n\n1 ½ teaspoons baking powder\n\n\n½ teaspoon baking soda\n\n\n1 cup white sugar\n\n\n½ cup butter\n\n\n2  eggs\n\n\n1 cup pumpkin seed and flax granola\n\n\n1 cup raisins\n\n\n½ cup finely chopped walnuts"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups all-purpose flour\n\n\n1 ½ teaspoons baking powder\n\n\n½ teaspoon baking soda\n\n\n1 cup white sugar\n\n\n½ cup butter\n\n\n2  eggs\n\n\n1 cup pumpkin seed and flax granola\n\n\n1 cup raisins\n\n\n½ cup finely chopped walnuts'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Mix together flour, baking powder, and baking soda in a bowl; set aside."},{"recipe_directions":"Combine sugar and butter in a large bowl; beat with an electric mixer until mixture has the consistency of a smooth paste. Add eggs and beat until smooth and creamy. Add granola, raisins, and walnuts and beat with the mixer until smooth with a slightly grainy texture. Stir in flour mixture until a dough forms. Drop teaspoonfuls of dough 2 inches apart onto the prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven until cookies are lightly browned on top, about 10 minutes. Cool on the baking sheet for 1 minute before removing to a wire rack to cool completely."},{"recipe_directions":"Various types of granola would be suitable to use in place of pumpkin seed and flax granola."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"176\nCalories\n\n\n8g \nFat\n\n\n25g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699653620-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GifoxW2C5S2GiCEIx8A_r_q-4ls=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1943x0:1945x2):format(webp)/5654490-6666a38bd57e4640911f14603aabe388.jpg"
@@ -849,59 +1150,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/267365/soft-and-chewy-chocolate-banana-oat-bars/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Soft and Chewy Chocolate-Banana Oat Bars</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 15 mins\n\n\nServings:\n8 \n\n\nYield:\n8 bars"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 packets CARNATION BREAKFAST ESSENTIALS® Rich Milk Chocolate Powdered Drink Mix\n\n\n½ cup almond butter\n\n\n¾ cup old-fashioned oats\n\n\n1 small ripe banana, mashed\n\n\n¼ cup unsweetened shredded coconut\n\n\n  cooking spray"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 packets CARNATION BREAKFAST ESSENTIALS® Rich Milk Chocolate Powdered Drink Mix\n\n\n½ cup almond butter\n\n\n¾ cup old-fashioned oats\n\n\n1 small ripe banana, mashed\n\n\n¼ cup unsweetened shredded coconut\n\n\n  cooking spray'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine drink mix, almond butter, oats, banana, and coconut in a medium bowl."},{"recipe_directions":"Line an 8-inch baking pan with foil. Spray foil with cooking spray."},{"recipe_directions":"Press mixture evenly into the pan and place freeze until firm, 2 to 3 hours. Cut into bars. Serve frozen, or let soften in the refrigerator."},{"recipe_directions":"I prefer to store these in the freezer for a firmer texture. If you keep these in the refrigerator, they will have a soft, gooey texture."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Trusted Brands: Recipes and Tips"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"207\nCalories\n\n\n12g \nFat\n\n\n22g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699653625-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0ydXgBop7A8hRuwGccuutP7QxPY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1223x0:1225x2):format(webp)/4545981-7561ed9913b14661b60c483e9c972e34.jpg"
@@ -914,59 +1211,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228504/monster-breakfast-cookies/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Monster Breakfast Cookies</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n20 \n\n\nYield:\n20 cookies"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup butter\n\n\n1 cup brown sugar\n\n\n2  eggs\n\n\n2 teaspoons vanilla extract\n\n\n½ cup vegetable oil\n\n\n½ cup honey\n\n\n3 cups oats\n\n\n2 ½ cups whole wheat flour\n\n\n½ cup ground flax seed\n\n\n¼ cup sesame seeds\n\n\n¼ cup poppy seeds\n\n\n¼ cup flax seeds\n\n\n1 teaspoon baking soda\n\n\n1 ½ teaspoons ground cinnamon\n\n\n1 cup raisins"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup butter\n\n\n1 cup brown sugar\n\n\n2  eggs\n\n\n2 teaspoons vanilla extract\n\n\n½ cup vegetable oil\n\n\n½ cup honey\n\n\n3 cups oats\n\n\n2 ½ cups whole wheat flour\n\n\n½ cup ground flax seed\n\n\n¼ cup sesame seeds\n\n\n¼ cup poppy seeds\n\n\n¼ cup flax seeds\n\n\n1 teaspoon baking soda\n\n\n1 ½ teaspoons ground cinnamon\n\n\n1 cup raisins'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Lightly grease 4 baking sheets."},{"recipe_directions":"Beat butter and sugar with an electric mixer in a large bowl until smooth. Beat the first egg into the butter until completely blended. Add second egg with vanilla extract; continue beating. Continue beating while adding vegetable oil, honey, oats, whole wheat flour, ground flax seed, sesame seeds, poppy seeds, flax seeds, baking soda, and ground cinnamon, respectively. Fold raisins into the dough."},{"recipe_directions":"Use a 1/4 cup measuring cup to create monster cookie size and drop onto prepared baking sheets."},{"recipe_directions":"Bake in the preheated oven until edges are just browning, about 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"337\nCalories\n\n\n16g \nFat\n\n\n46g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699653630-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/9TzmCwaiQ2Ke6ji4ppkLd34yASc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2340232-684b1a57dbb243c1939f3eea3aece7dc.jpg"
@@ -979,59 +1272,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244300/rice-breakfast-bars/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Rice Breakfast Bars</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n 1 hr 5 mins\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n½ cup water\n\n\n¼ cup uncooked brown rice\n\n\n⅓ cup peanut butter\n\n\n⅓ cup unsweetened applesauce\n\n\n¼ cup honey\n\n\n1  egg\n\n\n1 cup garbanzo bean flour\n\n\n½ cup rolled oats\n\n\n½ cup dried currants\n\n\n¼ cup sweetened flaked coconut, chopped\n\n\n2 tablespoons sunflower seeds\n\n\n2 tablespoons chia seeds\n\n\n½ teaspoon baking powder\n\n\n½ teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n½ cup water\n\n\n¼ cup uncooked brown rice\n\n\n⅓ cup peanut butter\n\n\n⅓ cup unsweetened applesauce\n\n\n¼ cup honey\n\n\n1  egg\n\n\n1 cup garbanzo bean flour\n\n\n½ cup rolled oats\n\n\n½ cup dried currants\n\n\n¼ cup sweetened flaked coconut, chopped\n\n\n2 tablespoons sunflower seeds\n\n\n2 tablespoons chia seeds\n\n\n½ teaspoon baking powder\n\n\n½ teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C). Coat an 8-inch pie pan with cooking spray."},{"recipe_directions":"Bring water and brown rice to a boil in a saucepan. Reduce heat to medium-low, cover, and simmer until rice is tender and liquid has been absorbed, 45 to 50 minutes."},{"recipe_directions":"Stir peanut butter, applesauce, honey, and egg together in a bowl; add rice, garbanzo bean flour, oats, currants, coconut, sunflower seeds, chia seeds, baking powder, and ground cinnamon and stir until combined. Spread dough evenly in prepared pie pan."},{"recipe_directions":"Bake in preheated oven until edges are golden brown, about 20 minutes."},{"recipe_directions":"Make sure all the water is absorbed into rice, possibly adding an additional 1 or 2 tablespoons water if it seems too dry."}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"250\nCalories\n\n\n10g \nFat\n\n\n36g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699653637-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DLQRXIoK_8MEGayEUGzwoucqu9w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():format(webp)/ar_defaultPlaceHolderImage-01ff595bb5c043819991b30b49bbb057.png"
@@ -1043,59 +1332,55 @@
 Baked Steel-Cut Oats</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/273445/baked-steel-cut-oats/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Baked Steel-Cut Oats</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup water\n\n\n½ cup steel-cut oats\n\n\n¼ teaspoon salt (Optional)\n\n\n⅓ cup milk\n\n\n1  egg\n\n\n1 tablespoon maple syrup\n\n\n½ cup chopped dried mixed fruit\n\n\n¼ cup chopped mixed nuts\n\n\n1 tablespoon canola oil\n\n\n½ tablespoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup water\n\n\n½ cup steel-cut oats\n\n\n¼ teaspoon salt (Optional)\n\n\n⅓ cup milk\n\n\n1  egg\n\n\n1 tablespoon maple syrup\n\n\n½ cup chopped dried mixed fruit\n\n\n¼ cup chopped mixed nuts\n\n\n1 tablespoon canola oil\n\n\n½ tablespoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine water, oats, and salt in a saucepan and bring to a boil. Reduce heat to a low simmer and cook, stirring occasionally, to desired chewiness, 10 to 20 minutes. Drain cooked oats in a colander and place them into a bowl."},{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Grease an 8-inch pie pan."},{"recipe_directions":"Whisk milk, egg, and maple syrup together in a bowl until frothy. Stir egg mixture into oats. Fold in dried fruit, nuts, canola oil, and cinnamon until batter is combined and pour into the prepared pan."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted into the center comes out clean and oatmeal has no liquid on top, 20 to 30 minutes. Let cool before cutting into bars."},{"recipe_directions":"You can use frozen or fresh fruit in place of the dried fruit, if you prefer."},{"recipe_directions":"The best steel-cut oats are usually organic or Irish oatmeal. The taste is hearty and the results are healthy."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"123\nCalories\n\n\n5g \nFat\n\n\n17g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699653646-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kGs9o41GzOSyLeAJa-IsZcO_lIE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/8799366-02f2f049f6f840f993d0c57888d4a268.jpg"
@@ -1108,59 +1393,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/280761/easy-peanut-butter-protein-cookies/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Easy Peanut Butter Protein Cookies</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n15 \n\n\nYield:\n15 cookies"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  bananas\n\n\n⅔ cup applesauce\n\n\n⅓ cup peanut butter\n\n\n1 teaspoon vanilla extract\n\n\n1 ½ cups oats\n\n\n¼ cup chopped walnuts\n\n\n1 scoop protein powder"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  bananas\n\n\n⅔ cup applesauce\n\n\n⅓ cup peanut butter\n\n\n1 teaspoon vanilla extract\n\n\n1 ½ cups oats\n\n\n¼ cup chopped walnuts\n\n\n1 scoop protein powder'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Mash bananas in a bowl and add applesauce, peanut butter, and vanilla extract. Mash together until well mixed. Add oats, walnuts, and protein powder. Mix until cookie dough comes together. Let sit for 8 to 10 minutes."},{"recipe_directions":"Use a tablespoon to scoop dough into 15 medium balls and place 2 inches apart on ungreased baking sheets."},{"recipe_directions":"Bake in the preheated oven until edges are golden, 20 to 30 minutes. Cool on the baking sheet for 1 minute before removing to a wire rack to cool completely."},{"recipe_directions":"You can toast the oats and walnuts before mixing into the batter if you like."},{"recipe_directions":"The cookies will not flatten or expand, so if you want your cookies to be pretty, then make your scoops of batter look nice."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Everyday Cooking"},{"recipe_tags":"Vegan"},{"recipe_tags":"Breakfast and Brunch"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"109\nCalories\n\n\n5g \nFat\n\n\n12g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699653656-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/DUds5Op2QpJCqyWc16bgqOrk2ps=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/374825-bb0086d9c386491d89f4898758ffa602.jpg"
@@ -1173,59 +1454,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/276874/instant-oatmeal-breakfast-cookies/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Instant Oatmeal Breakfast Cookies</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n60 \n\n\nYield:\n60 cookies"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup butter, softened\n\n\n1 cup white sugar\n\n\n¾ cup brown sugar\n\n\n½ cup cinnamon-flavored applesauce\n\n\n1  egg\n\n\n1 teaspoon vanilla extract\n\n\n½ teaspoon coconut extract\n\n\n½ teaspoon almond extract\n\n\n1 cup cake flour\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon salt\n\n\n1 cup raisins\n\n\n4 (1.23 ounce) packages instant apple-cinnamon oatmeal\n\n\n½ cup dried cranberries\n\n\n1 cup whole wheat flour"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup butter, softened\n\n\n1 cup white sugar\n\n\n¾ cup brown sugar\n\n\n½ cup cinnamon-flavored applesauce\n\n\n1  egg\n\n\n1 teaspoon vanilla extract\n\n\n½ teaspoon coconut extract\n\n\n½ teaspoon almond extract\n\n\n1 cup cake flour\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon salt\n\n\n1 cup raisins\n\n\n4 (1.23 ounce) packages instant apple-cinnamon oatmeal\n\n\n½ cup dried cranberries\n\n\n1 cup whole wheat flour'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"Mix together butter, white sugar, brown sugar, applesauce, egg, vanilla, coconut extract, and almond extract in a large bowl until smooth in texture. Add cake flour, baking soda, and salt; mix until blended. Stir in raisins, instant oatmeal, and dried cranberries. Mix in whole wheat flour, 1/2 cup at a time, until blended. Drop tablespoon-sized scoops of dough onto a nonstick cookie sheet and flatten dough with a spoon."},{"recipe_directions":"Bake in the preheated oven until golden brown, 8 to 10 minutes. Place on a wire rack to cool."},{"recipe_directions":"All-purpose white flour may be used in place of cake flour, if preferred."},{"recipe_directions":"You can select a different instant oatmeal flavor or combine flavors together for a different taste."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"89\nCalories\n\n\n3g \nFat\n\n\n15g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699653663-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/TPkZngrDiXAv5C0CvhG159xgPJo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2761583-160693afdb574cee98ca13a91f0fa537.jpg"
@@ -1238,59 +1515,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/245262/gingerbread-granola-bars/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Gingerbread Granola Bars</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n56 \n\n\nYield:\n56 bars"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8 cups old-fashioned rolled oats\n\n\n4 cups all-purpose flour\n\n\n3 cups brown sugar\n\n\n½ cup white sugar\n\n\n1 tablespoon salt\n\n\n1 tablespoon ground cinnamon\n\n\n1 ½ teaspoons ground cloves\n\n\n1 ½ teaspoons ground ginger\n\n\n2 cups vegetable oil\n\n\n1 cup honey\n\n\n¾ cup molasses\n\n\n4  eggs, beaten\n\n\n1 tablespoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8 cups old-fashioned rolled oats\n\n\n4 cups all-purpose flour\n\n\n3 cups brown sugar\n\n\n½ cup white sugar\n\n\n1 tablespoon salt\n\n\n1 tablespoon ground cinnamon\n\n\n1 ½ teaspoons ground cloves\n\n\n1 ½ teaspoons ground ginger\n\n\n2 cups vegetable oil\n\n\n1 cup honey\n\n\n¾ cup molasses\n\n\n4  eggs, beaten\n\n\n1 tablespoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease two 9x13-inch baking sheets."},{"recipe_directions":"Mix oats, flour, brown sugar, white sugar, salt, cinnamon, cloves, and ginger in a large bowl. Stir in oil, honey, molasses, and eggs. Mix until well-combined. Pat mixture onto baking sheets using your hands."},{"recipe_directions":"Bake in the preheated oven until edges begin to brown and center no longer looks glossy, 15 to 20 minutes."},{"recipe_directions":"Cool for about 10 minutes; cut into bars while still warm."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"219\nCalories\n\n\n9g \nFat\n\n\n33g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699653671-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/alVEqxphKybJeqpNO_NWd8IpMYA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/whole-grain-breakfast-cookies-fda31606fa5d4b8baf1ebf9dd2fb061b.jpg"
@@ -1302,59 +1575,55 @@
 Too Busy for Breakfast? Try One of Our Best Make-Ahead Breakfast Cookies</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/make-ahead-breakfast-cookies/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Too Busy for Breakfast? Try One of Our Best Make-Ahead Breakfast Cookies</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cookies, for breakfast? You bet. Wholesome breakfast cookie recipes that contain filling ingredients like peanut butter, chia seeds, and flax make for a deliciously satisfying bite. For those who rarely have time for a sit-down meal in the morning, these irresistibly soft and chewy, make-ahead treats are a perfect play."},{"recipe_directions":"It's not really breakfast unless there's some bacon involved, and this cookie has plenty of salty, crisp goodness inside. A half pound of bacon and hearty oats make this a go-to recipe for the morning meat-lover."},{"recipe_directions":"\"A low-sugar cookie for breakfast on the go,\" says recipe creator DYEH. \"I like to make several portions of the dry ingredients all at one time and store in plastic bags for easy assembly when needed.\""},{"recipe_directions":"Dive into soft, enticing breakfast bars to start your day off right. Mashed bananas, peanut butter, and brown sugar swirl together in this no-fuss, 9x9 recipe."},{"recipe_directions":"Toasted cereal joins rolled oats and raisins in this perfectly chewy cookie recipe. You'll love every buttery bite of these jumbo-sized treats that are great at breakfast or whenever you need a break."},{"recipe_directions":"Hundreds of 5-star reviews don't lie — these pillowy, chocolate-dotted treats make the best breakfast cookie ever. Almond butter and walnuts add wonderfully hearty flavor to this family-friendly recipe."},{"recipe_directions":"\"Three out of our four young kids like them, and the grownups like them with their coffee,\" shares reviewer busymama. \"To adjust to our taste, we skipped the raisins and cinnamon and went with chocolate chips instead.\""},{"recipe_directions":"These cakelike breakfast cookies are boosted with cinnamon, vanilla, and dried apricots. Simply bake them for 10-12 minutes and have a luxuriously sweet morning."},{"recipe_directions":"These wholesome goodies are made with rolled oats, yogurt, and raisins for a quicky, juicy bite of sweetness. Bake up wonderfully fragrant breakfast cookies swirled with banana and cinnamon for a satisfying morning."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Cookie Recipes"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699653678-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Nwh9WanAfr9ZNbUxCp60ROj5FYU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1023x0:1025x2):format(webp)/5654486-705464d651aa4176a8536ecd8c1ccf4a.jpg"
@@ -1365,59 +1634,55 @@
 Carnation Breakfast Chocolate Craver's Delight Cookies</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/267360/carnation-breakfast-chocolate-cravers-delight-cookies/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Carnation Breakfast Chocolate Craver's Delight Cookies</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n2 mins\n\n\nTotal Time:\n32 mins\n\n\nServings:\n60 \n\n\nYield:\n60 cookies"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 packets CARNATION BREAKFAST ESSENTIALS® Rich Milk Chocolate High Protein Powder Drink Mix\n\n\n¾ cup white sugar\n\n\n½ cup butter, softened\n\n\n½ cup vegetable shortening\n\n\n¼ cup brown sugar\n\n\n2  eggs (Optional)\n\n\n2 ¼ cups all-purpose flour\n\n\n1 teaspoon almond extract\n\n\n1 teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n1 cup sweetened shredded coconut\n\n\n1 (12 ounce) package miniature semisweet chocolate chips"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 packets CARNATION BREAKFAST ESSENTIALS® Rich Milk Chocolate High Protein Powder Drink Mix\n\n\n¾ cup white sugar\n\n\n½ cup butter, softened\n\n\n½ cup vegetable shortening\n\n\n¼ cup brown sugar\n\n\n2  eggs (Optional)\n\n\n2 ¼ cups all-purpose flour\n\n\n1 teaspoon almond extract\n\n\n1 teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n1 cup sweetened shredded coconut\n\n\n1 (12 ounce) package miniature semisweet chocolate chips'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Beat white sugar, butter, shortening, and brown sugar together in a bowl using an electric mixer until creamy. Add milk chocolate powder and mix until well blended. Beat in eggs."},{"recipe_directions":"Gradually add flour, almond extract, baking soda, and salt to the butter mixture. Beat until well blended. Stir in coconut and fold in chocolate chips. Drop tablespoonfuls of dough onto ungreased baking sheets, spacing them 2 inches apart."},{"recipe_directions":"Bake in the preheated oven until lightly browned on the edges, 10 to 12 minutes. Allow to cool for 2 minutes on the baking sheets. Transfer cookies to a cooling rack to cool completely."},{"recipe_directions":"These cookies are very chocolaty! If you would like them to be less chocolate-filled, use 1/2 of the bag of chocolate chips. Add chopped almonds if desired."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"99\nCalories\n\n\n6g \nFat\n\n\n12g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699653683-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hOQJl6NFk-trd5IuYXlCotCIaL8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3232494-4a915b7dbd4c4d578a92750577edb962.jpg"
@@ -1430,59 +1695,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228017/low-fat-breakfast-cookies/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Low Fat Breakfast Cookies</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n12 mins\n\n\nTotal Time:\n22 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups rolled oats\n\n\n½ cup whole wheat flour\n\n\n½ cup all-purpose flour\n\n\n½ cup light brown sugar\n\n\n1 ½ teaspoons wheat germ\n\n\n½ teaspoon baking powder\n\n\n½ teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n1  ripe banana, mashed\n\n\n¼ cup unsweetened applesauce\n\n\n2  egg whites\n\n\n1 teaspoon vanilla extract\n\n\n½ cup chocolate chips\n\n\n½ cup dried cranberries"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups rolled oats\n\n\n½ cup whole wheat flour\n\n\n½ cup all-purpose flour\n\n\n½ cup light brown sugar\n\n\n1 ½ teaspoons wheat germ\n\n\n½ teaspoon baking powder\n\n\n½ teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n1  ripe banana, mashed\n\n\n¼ cup unsweetened applesauce\n\n\n2  egg whites\n\n\n1 teaspoon vanilla extract\n\n\n½ cup chocolate chips\n\n\n½ cup dried cranberries'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Line a baking sheet with parchment paper or a silicone mat."},{"recipe_directions":"Combine oats, whole wheat flour, all-purpose flour, brown sugar, wheat germ, baking powder, baking soda, and salt in a large bowl. Add banana, applesauce, egg whites, and vanilla extract; mix well. Gently fold chocolate chips and cranberries into the batter. Drop batter, about 1 tablespoon at a time, onto the prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven until golden brown, about 12 minutes."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"260\nCalories\n\n\n5g \nFat\n\n\n53g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699653691-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Svy0YohOCwYPOuj2Ba5wd--W5Lw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(275x0:277x2):format(webp)/283066_Nutella-biscotti41-S-a46a3e71af30407596e8db4eccbf188c.jpg"
@@ -1496,59 +1757,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/283066/nutella-biscotti/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Nutella® Biscotti</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr\n\n\nAdditional Time:\n55 mins\n\n\nTotal Time:\n 2 hrs 25 mins\n\n\nServings:\n44 \n\n\nYield:\n44 biscotti"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n2 ½ cups all-purpose flour\n\n\n2 tablespoons unsweetened cocoa powder\n\n\n1 tablespoon baking powder\n\n\n½ teaspoon kosher salt\n\n\n3 large eggs\n\n\n1 cup white sugar\n\n\n⅓ cup unsalted butter, melted\n\n\n1 teaspoon vanilla extract\n\n\n⅓ cup chocolate-hazelnut spread (such as Nutella®)\n\n\n1 ¼ cups bittersweet chocolate chips\n\n\n1 cup chopped raw hazelnuts\n\n\n½ cup milk chocolate candy wafers"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n2 ½ cups all-purpose flour\n\n\n2 tablespoons unsweetened cocoa powder\n\n\n1 tablespoon baking powder\n\n\n½ teaspoon kosher salt\n\n\n3 large eggs\n\n\n1 cup white sugar\n\n\n⅓ cup unsalted butter, melted\n\n\n1 teaspoon vanilla extract\n\n\n⅓ cup chocolate-hazelnut spread (such as Nutella®)\n\n\n1 ¼ cups bittersweet chocolate chips\n\n\n1 cup chopped raw hazelnuts\n\n\n½ cup milk chocolate candy wafers'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C). Position racks in top and bottom third of the oven. Line two large rimmed baking sheets with parchment paper and lightly spray with cooking spray."},{"recipe_directions":"Whisk flour, cocoa powder, baking powder, and salt together in a medium bowl."},{"recipe_directions":"Beat eggs in the bowl of a stand mixer fitted with a whisk attachment on medium-high speed until pale and frothy, about 2 minutes. Gradually add sugar and mix until pale and thickened, about 2 minutes. Beat in melted butter and vanilla on low speed until combined."},{"recipe_directions":"Add chocolate-hazelnut spread and beat on low speed, scraping down sides and bottom of bowl as needed, until just combined, about 30 seconds. Gradually mix in flour mixture and on low speed until just combined, about 30 seconds. Fold in chocolate chips and hazelnuts until just combined."},{"recipe_directions":"Divide dough in half. Place each half in the center of a prepared baking sheet. Lightly spray your hands with cooking spray and shape each piece of dough into a 3/4-x2 1/2-x13-inch log."},{"recipe_directions":"Bake in the preheated oven, rotating cookie sheets halfway through, until set and firm to the touch, about 30 minutes. Remove from the oven and let cool on the baking sheets for 10 minutes. Reduce oven temperature to 300 degrees F (150 degrees C)."},{"recipe_directions":"Carefully transfer one log to a cutting board. Use a serrated knife to cut 1/2-inch slices on the diagonal. Transfer slices back to the baking sheet in an even layer, with cut-sides up. Repeat with the remaining log."},{"recipe_directions":"Bake in the preheated oven until dried, about 30 minutes, flipping cookies and rotating baking sheets halfway through. Transfer biscotti to a wire rack and let cool completely, about 30 minutes."},{"recipe_directions":"Meanwhile, microwave candy wafers in a medium microwave-safe bowl on high power for 30 seconds, then stir. Continue microwaving and stirring in 30-second increments, until melted and smooth, about 1 to 1 1/2 minutes total. Drizzle melted chocolate over one end of each biscotti."},{"recipe_directions":"Refrigerate, uncovered, until chocolate hardens, about 15 minutes."},{"recipe_directions":"I use Ghirardelli(R) Melting Wafers for the milk chocolate candy wafers."},{"recipe_directions":"I lay all the biscotti facing the same direction so that when it comes time to flip them I have a quick visual cue to which ones have been flipped and which ones haven't."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Cookies"},{"recipe_tags":"Biscotti Recipes"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"124\nCalories\n\n\n6g \nFat\n\n\n16g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699653696-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BFQwrW67mMIGPCifahic2lTiEuo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/5013631-797ce1327b534789b47d9f2d2bd3997e.jpg"
@@ -1561,59 +1818,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/26107/best-breakfast-cookie/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Best Breakfast Cookie</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n8 mins\n\n\nAdditional Time:\n12 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n30 \n\n\nYield:\n30 cookies"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups brown sugar\n\n\n2 ½ cups rolled oats\n\n\n4 cups all-purpose flour\n\n\n1 tablespoon baking soda\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon salt\n\n\n1 ½ teaspoons ground cinnamon\n\n\n¼ cup canola oil\n\n\n½ cup prune puree\n\n\n2 tablespoons water\n\n\n5  egg whites\n\n\n1 ½ teaspoons vanilla extract\n\n\n¾ cup raisins\n\n\n¼ cup chopped walnuts\n\n\n⅓ cup chopped dried apricots"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups brown sugar\n\n\n2 ½ cups rolled oats\n\n\n4 cups all-purpose flour\n\n\n1 tablespoon baking soda\n\n\n1 teaspoon baking powder\n\n\n1 teaspoon salt\n\n\n1 ½ teaspoons ground cinnamon\n\n\n¼ cup canola oil\n\n\n½ cup prune puree\n\n\n2 tablespoons water\n\n\n5  egg whites\n\n\n1 ½ teaspoons vanilla extract\n\n\n¾ cup raisins\n\n\n¼ cup chopped walnuts\n\n\n⅓ cup chopped dried apricots'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease cookie sheets or line with parchment paper."},{"recipe_directions":"In a large bowl, stir together the brown sugar, oats, flour, baking soda, baking powder, salt and cinnamon. Make a well in the center and pour in the canola oil, prune puree, water, egg whites and vanilla. Mix until well blended. Stir in the raisins, walnuts and apricots. Scoop cookies using an ice cream scoop, or roll into golf ball sized balls. Place cookies 2 inches apart onto the prepared cookie sheets and flatten to 1/2 tall with wet hands. These cookies do not flatten very much while baking."},{"recipe_directions":"In the preheated oven, bake 8 minutes for chewy cookies 10 to 12 minutes for dry cookies. Cookies will not get crisp. Remove from cookie sheets to cool on wire racks."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"176\nCalories\n\n\n3g \nFat\n\n\n34g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699653702-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QrFJKyM5qbtd3ZTofU2GZ0Xe3-g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4417027-51ef541f2a5345b9a680f5b254157d73.jpg"
@@ -1624,59 +1877,55 @@
 Easy Oatmeal-Banana Breakfast Cookies</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275807/easy-oatmeal-banana-breakfast-cookies/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Easy Oatmeal-Banana Breakfast Cookies</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n15 \n\n\nYield:\n15 cookies"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  ripened bananas\n\n\n1 ¾ cups instant oats\n\n\n¼ cup semisweet chocolate chips\n\n\n¼ cup walnuts (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  ripened bananas\n\n\n1 ¾ cups instant oats\n\n\n¼ cup semisweet chocolate chips\n\n\n¼ cup walnuts (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Mash bananas in a medium bowl. Stir in oats, chocolate chips, and walnuts."},{"recipe_directions":"Drop dough by rounded teaspoonfuls onto the prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven for 15 to 20 minutes."},{"recipe_directions":"Feel free to use almonds instead of walnuts."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"75\nCalories\n\n\n3g \nFat\n\n\n12g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699653709-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/QGwsi8surWd_Jdu26PlJKFY_nHE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/Sausage-Egg-and-Cheese-Breakfast-Cookies-69f133066a384eec932b0948d28534f3.jpg"
@@ -1690,59 +1939,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8511432/sausage-egg-and-cheese-breakfast-cookies/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Sausage, Egg, and Cheese Breakfast Cookies</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n11 \n\n\nYield:\n11 breakfast cookies"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 ounces breakfast sausage\n\n\n½  finely minced white onion\n\n\n¾ cup all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n½ teaspoon freshly ground black pepper\n\n\n3 medium eggs, lightly beaten\n\n\n1 cup shredded Cheddar cheese, divided\n\n\n1 pinch freshly grated Parmesan cheese\n\n\n⅛ teaspoon dried parsley"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 ounces breakfast sausage\n\n\n½  finely minced white onion\n\n\n¾ cup all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n½ teaspoon freshly ground black pepper\n\n\n3 medium eggs, lightly beaten\n\n\n1 cup shredded Cheddar cheese, divided\n\n\n1 pinch freshly grated Parmesan cheese\n\n\n⅛ teaspoon dried parsley'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Line a large baking sheet with parchment paper"},{"recipe_directions":"Heat a non stick skillet over medium heat and cook sausage until crumbly, 3 to 5 minutes. Add in the onion and cook, stirring and breaking up the sausage until it is no longer pink. Transfer mixture to a paper towel-lined plate and drain for 3 to 5 minutes."},{"recipe_directions":"Meanwhile, combine flour, baking powder, salt, pepper, Parmesan cheese, and parsley in a large bowl; whisking until well combined. Whisk in eggs until well combined. Add 3/4 cup Cheddar cheese and stir until mixed in. Spoon in sausage mixture and mix to form a thick batter."},{"recipe_directions":"Scoop out about a 1/4 cup of the mixture and drop onto the prepared baking sheet. Sprinkle each 'cookie' with Cheddar cheese and slightly flatten with your fingers."},{"recipe_directions":"Bake in the preheated oven until firm, about 10 minutes. If cookie is still a little soft, cook for 2 minutes longer. Remove from the oven and allow to cool slightly before serving."},{"recipe_directions":"Good breakfast sausages for this recipe are Jimmy Dean® or Isernio's®. You can use 1/4 cup chopped green onion instead of white onion."},{"recipe_directions":"There are many variations you can take on this recipe. Use leftover taco meat and pepper jack cheese. Maybe add some cream to the mixture for a creamier cookie. Bacon with Gruyere and fresh parsley would be great too. Have fun with this!"}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Breakfast Cookie Recipes"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"137\nCalories\n\n\n9g \nFat\n\n\n8g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699653716-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/94xBQg2OX7tiGF3Ajkr-PVhtmiE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2222632-82370a9003b24826b594718039253edd.jpg"
@@ -1755,59 +2000,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242034/clean-breakfast-cookies/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Clean Breakfast Cookies</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n36 \n\n\nYield:\n36 cookies"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n2 cups rolled oats\n\n\n1 cup whole wheat pastry flour\n\n\n¼ cup flax seed meal\n\n\n2 ½ teaspoons ground cinnamon\n\n\n½ teaspoon sea salt\n\n\n1 teaspoon baking soda\n\n\n1 cup honey\n\n\n2  egg whites\n\n\n4 teaspoons almond butter\n\n\n½ teaspoon vanilla extract\n\n\n4 ounces semisweet chocolate chips (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n2 cups rolled oats\n\n\n1 cup whole wheat pastry flour\n\n\n¼ cup flax seed meal\n\n\n2 ½ teaspoons ground cinnamon\n\n\n½ teaspoon sea salt\n\n\n1 teaspoon baking soda\n\n\n1 cup honey\n\n\n2  egg whites\n\n\n4 teaspoons almond butter\n\n\n½ teaspoon vanilla extract\n\n\n4 ounces semisweet chocolate chips (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 325 degrees F (165 degrees C). Spray 2 baking sheets with cooking spray."},{"recipe_directions":"Whisk oats, pastry flour, flax meal, cinnamon, salt, and baking soda together in a large bowl. Stir honey, egg whites, almond butter, and vanilla extract into oats mixture until dough is well-blended; mix in chocolate chips. Scoop dough into 36 balls and place on prepared baking sheets."},{"recipe_directions":"Bake in the preheated oven until lightly golden and set, 8 to 10 minutes. Cool on the baking sheet for 10 minutes, lightly loosen each cookie from the baking sheet, and continue cooling on the baking sheets for another 10 minutes."},{"recipe_directions":"You can substitute dried cranberries for chocolate chips, if desired."},{"recipe_directions":"I use two baking sheets and produce 36 cookies by using a cookie scoop."},{"recipe_directions":"I also prefer baking at 325 degrees F (165 degrees C) in convection mode for 8 minutes, which produces chewy cookies. Cook longer for a dryer cookie."},{"recipe_directions":"These cookies store well for approximately 3 days."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"79\nCalories\n\n\n2g \nFat\n\n\n15g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699653722-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Y5i_kpp0LpW5ld9BK002DK8APa8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2656x0:2658x2):format(webp)/7795692-7295997fbf504e42a92a28944ae616d9.jpg"
@@ -1820,59 +2061,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/278732/healthier-carrot-oatmeal-cookies/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Healthier Carrot Oatmeal Cookies</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n24 \n\n\nYield:\n24 large cookies"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup honey\n\n\n⅔ cup coconut oil\n\n\n2 cups grated carrots\n\n\n2  eggs\n\n\n1 cup all-purpose flour\n\n\n2 teaspoons baking powder\n\n\n2 teaspoons ground cinnamon\n\n\n½ teaspoon ground nutmeg\n\n\n¼ teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n3 cups quick-cooking oats\n\n\n1 cup raisins\n\n\n½ cup chopped walnuts (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup honey\n\n\n⅔ cup coconut oil\n\n\n2 cups grated carrots\n\n\n2  eggs\n\n\n1 cup all-purpose flour\n\n\n2 teaspoons baking powder\n\n\n2 teaspoons ground cinnamon\n\n\n½ teaspoon ground nutmeg\n\n\n¼ teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n3 cups quick-cooking oats\n\n\n1 cup raisins\n\n\n½ cup chopped walnuts (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Line 2 cookie sheets with parchment paper."},{"recipe_directions":"Combine honey and coconut oil in a large bowl; beat with an electric mixer until creamy. Add carrots and eggs and mix well."},{"recipe_directions":"Sift flour, baking powder, cinnamon, nutmeg, baking soda, and salt together in a large bowl. Add to the wet ingredients and mix until well combined. Mix in oats, raisins, and walnuts until well distributed."},{"recipe_directions":"Drop large spoonfuls of dough 2 inches apart onto the prepared cookie sheets and flatten with a fork, if desired."},{"recipe_directions":"Bake in the preheated oven until tops are a golden color, about 15 minutes. Cool on the baking sheet for 1 minute before removing to a wire rack to cool completely."},{"recipe_directions":"You can use butter instead of coconut oil, and any dried fruit in place of raisins. If you'd like, use 1/2 whole wheat flour and 1/2 all-purpose flour."},{"recipe_directions":"I love cinnamon, so I use a lot. If you prefer a less spiced taste, reduce the amount of cinnamon."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"199\nCalories\n\n\n9g \nFat\n\n\n29g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699653730-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-747HWgkpiK4xnEec1ZVU9r3dNI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2527650-03e09758781d489e9741520ec41e6d18.jpg"
@@ -1885,59 +2122,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244285/blueberry-banana-breakfast-bars/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Blueberry Banana Breakfast Bars</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n9 \n\n\nYield:\n9 servings"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ⅓ cups rolled oats\n\n\n⅓ cup coarsely chopped dried figs\n\n\n¼ cup coarsely chopped almonds\n\n\n¼ cup sunflower seeds\n\n\n1 cup mashed ripe bananas\n\n\n⅓ cup smooth peanut butter\n\n\n2 tablespoons honey\n\n\n2  large egg whites\n\n\n⅔ cup fresh blueberries\n\n\n1 tablespoon flax seeds\n\n\n1 tablespoon sunflower seeds"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ⅓ cups rolled oats\n\n\n⅓ cup coarsely chopped dried figs\n\n\n¼ cup coarsely chopped almonds\n\n\n¼ cup sunflower seeds\n\n\n1 cup mashed ripe bananas\n\n\n⅓ cup smooth peanut butter\n\n\n2 tablespoons honey\n\n\n2  large egg whites\n\n\n⅔ cup fresh blueberries\n\n\n1 tablespoon flax seeds\n\n\n1 tablespoon sunflower seeds'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Line an 8-inch square baking pan with parchment paper, leaving 1 inch of parchment hanging over the sides."},{"recipe_directions":"Mix oats, figs, almonds, and 1/4 cup sunflower seeds together in a bowl."},{"recipe_directions":"Stir bananas, peanut butter, and honey together in a saucepan over medium-low heat until completely melted and smooth, about 5 minutes. Remove saucepan from heat."},{"recipe_directions":"Whisk egg whites together in a bowl until foamy. Mix banana mixture into egg whites and whisk until smooth; add oat mixture and stir until batter well combined. Fold blueberries into batter. Press batter into the prepared pan; top with flax seeds and 1 tablespoon sunflower seeds."},{"recipe_directions":"Bake in the preheated oven until golden, about 30 minutes. Cool completely before cutting into bars."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"211\nCalories\n\n\n10g \nFat\n\n\n26g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699653737-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2oPg1FGutXAKNFsj9WCc2MUcOEo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/662821-1deeca8125a245fc9f95d4b5f51bc014.jpg"
@@ -1948,59 +2181,55 @@
 Chocolate Chip Breakfast Cookies</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/262504/chocolate-chip-breakfast-cookies/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Chocolate Chip Breakfast Cookies</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n12 mins\n\n\nAdditional Time:\n3 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n20 \n\n\nYield:\n20 large cookies"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups quick-cooking oats\n\n\n1 cup all-purpose flour\n\n\n1 cup whole wheat flour\n\n\n2 teaspoons baking powder\n\n\n1 teaspoon salt\n\n\n1 teaspoon baking soda\n\n\n¾ cup white sugar\n\n\n¾ cup brown sugar\n\n\n¼ cup butter, room temperature\n\n\n2  large eggs\n\n\n½ cup applesauce\n\n\n2 teaspoons vanilla extract\n\n\n2 cups semisweet chocolate chips"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups quick-cooking oats\n\n\n1 cup all-purpose flour\n\n\n1 cup whole wheat flour\n\n\n2 teaspoons baking powder\n\n\n1 teaspoon salt\n\n\n1 teaspoon baking soda\n\n\n¾ cup white sugar\n\n\n¾ cup brown sugar\n\n\n¼ cup butter, room temperature\n\n\n2  large eggs\n\n\n½ cup applesauce\n\n\n2 teaspoons vanilla extract\n\n\n2 cups semisweet chocolate chips'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Stir oats, all-purpose flour, whole wheat flour, baking powder, salt, and baking soda together in a bowl."},{"recipe_directions":"Beat white sugar, brown sugar, and butter together in a large bowl using an electric mixer until fluffy. Beat in eggs, applesauce, and vanilla extract in that order. Stir in the oat-flour mixture until dough is just combined. Stir in chocolate chips."},{"recipe_directions":"Drop 1/4 cup of the dough onto the prepared baking sheet. Repeat with the remaining dough, flattening each cookie slightly."},{"recipe_directions":"Bake in the preheated oven until light brown at the edges, 12 to 15 minutes. Let cool on the baking sheet, 3 to 4 minutes. Transfer cookies to a wire rack to cool completely."},{"recipe_directions":"Feel free to use regular rolled oats instead of the quick-cooking kind."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"200\nCalories\n\n\n5g \nFat\n\n\n36g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699653742-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/bc3U9eoiwxXGx6fcM6S9IanLu48=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/7861571-539a3c6a200f46f2a7226b9b8abf7bcf.jpg"
@@ -2013,59 +2242,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/275809/banana-breakfast-cookies/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Banana Breakfast Cookies</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n12 \n\n\nYield:\n12 cookies"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3  very ripe bananas\n\n\n2 cups rolled oats\n\n\n1 cup raisins\n\n\n⅓ cup plain yogurt\n\n\n1 teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3  very ripe bananas\n\n\n2 cups rolled oats\n\n\n1 cup raisins\n\n\n⅓ cup plain yogurt\n\n\n1 teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line cookie sheets with parchment paper."},{"recipe_directions":"Mash bananas in a large bowl. Add oats, raisins, yogurt, and cinnamon. Mix well and allow to sit for 15 minutes."},{"recipe_directions":"Drop spoonfuls of dough 2 inches apart onto the prepared cookie sheets."},{"recipe_directions":"Bake in the preheated oven until lightly browned, about 20 minutes."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"123\nCalories\n\n\n1g \nFat\n\n\n27g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699653748-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/v-FlWl9mWDH7XZEe-IkhZMKrE6k=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/5672109-6dadcbfbb101431c88586cb6fa21af17.jpg"
@@ -2078,59 +2303,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/218926/bacon-oatmeal-breakfast-cookies-with-maple-glaze/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Bacon Oatmeal Breakfast Cookies With Maple Glaze</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n25 mins\n\n\nTotal Time:\n 1 hr 15 mins\n\n\nServings:\n18 \n\n\nYield:\n1 1/2 dozen"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ pound bacon\n\n\n½ cup butter, softened\n\n\n½ cup white sugar\n\n\n½ cup packed brown sugar\n\n\n1  egg\n\n\n½ teaspoon vanilla extract\n\n\n1 cup all-purpose flour\n\n\n½ teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n1 teaspoon ground cinnamon\n\n\n1 ½ cups quick cooking oats\n\n\n⅞ cup confectioners' sugar\n\n\n1 ½ tablespoons water, or as needed\n\n\n1 ½ tablespoons real maple syrup"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "½ pound bacon\n\n\n½ cup butter, softened\n\n\n½ cup white sugar\n\n\n½ cup packed brown sugar\n\n\n1  egg\n\n\n½ teaspoon vanilla extract\n\n\n1 cup all-purpose flour\n\n\n½ teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n1 teaspoon ground cinnamon\n\n\n1 ½ cups quick cooking oats\n\n\n⅞ cup confectioners' sugar\n\n\n1 ½ tablespoons water, or as needed\n\n\n1 ½ tablespoons real maple syrup"}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the bacon in a large, deep skillet, and cook over medium-high heat, turning occasionally, until evenly browned, about 10 minutes. Drain the bacon slices on a paper towel-lined plate. When cool, chop the bacon, and set aside."},{"recipe_directions":"Beat the butter, white sugar, and brown sugar together in a large mixing bowl until fluffy with an electric mixer on medium speed, then mix in egg, and vanilla extract until thoroughly combined. Whisk the flour, baking soda, salt, and cinnamon together in a bowl, and stir the flour mixture into the butter mixture. Gradually stir in the oats and bacon, about 1/3 cup of oats at a time, and cover the dough. Refrigerate at least 1 hour."},{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C). Thoroughly grease baking sheets."},{"recipe_directions":"Scoop about 1/3 cup of dough per cookie, roll into balls, and place the balls at least 3 inches apart on the greased baking sheets. Use a fork dipped in water to flatten the balls slightly."},{"recipe_directions":"Bake in the preheated oven until the cookies are golden brown with slightly browner edges, 10 to 12 minutes. Allow to cool on baking sheets 3 to 5 minutes before removing to finish cooling on racks."},{"recipe_directions":"To make glaze, whisk confectioners' sugar, water, and maple syrup together in a bowl until smooth. Let the glaze stand about 5 minutes to slightly thicken; drizzle onto the tops of the cookies. Allow glazed cookies to stand about 20 minutes to set up before storing."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Meat and Seafood"},{"recipe_tags":"Bacon"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"196\nCalories\n\n\n8g \nFat\n\n\n29g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699653752-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/OqG5iFkVXqD4kwrlvTg99bJ4huo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/8617181-dd8f85ba2da84c17be04cf9002d3b453.jpg"
@@ -2143,59 +2364,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214695/banana-wake-up-bars/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Banana Wake-Up Bars</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n20 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n16 \n\n\nYield:\n1 9x9-inch pan"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"⅓ cup peanut butter\n\n\n⅓ cup brown sugar\n\n\n2 ½ tablespoons butter\n\n\n1  egg\n\n\n½ teaspoon vanilla extract\n\n\n1  ripe banana, mashed\n\n\n⅔ cup rolled oats\n\n\n⅓ cup all-purpose flour\n\n\n2 tablespoons wheat germ\n\n\n¼ teaspoon baking soda"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '⅓ cup peanut butter\n\n\n⅓ cup brown sugar\n\n\n2 ½ tablespoons butter\n\n\n1  egg\n\n\n½ teaspoon vanilla extract\n\n\n1  ripe banana, mashed\n\n\n⅔ cup rolled oats\n\n\n⅓ cup all-purpose flour\n\n\n2 tablespoons wheat germ\n\n\n¼ teaspoon baking soda'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Grease a 9x9-inch baking pan."},{"recipe_directions":"In a mixing bowl, beat together the peanut butter, brown sugar, and butter with an electric mixer until smooth and fluffy. Beat in the egg and vanilla extract, then the banana. Stir in the oats, flour, wheat germ, and baking soda until completely combined. Spread in prepared baking pan."},{"recipe_directions":"Bake in the preheated oven until set and lightly browned, 20 to 25 minutes. Remove from oven and cool in pan on wire rack before cutting into bars."},{"recipe_directions":"If you are not a banana fan, substitute 1/2 cup of unsweetened applesauce for the banana."},{"recipe_directions":"When I don't have wheat germ, I use 2 tablespoons flax seed meal."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"102\nCalories\n\n\n5g \nFat\n\n\n12g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699653757-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4V_MHpMdhk353xz9WNiX8IA1_7U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1208x0:1210x2):format(webp)/9444409-8833b8432544475a9924ac8e230c6f51.jpg"
@@ -2208,59 +2425,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241170/oatmeal-energy-bars/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Oatmeal Energy Bars</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n10 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n24 \n\n\nYield:\n24 servings"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ⅓ cups rolled oats\n\n\n½ cup all-purpose flour\n\n\n½ cup vegan semi-sweet chocolate chips\n\n\n½ cup ground unsalted cashews\n\n\n2 tablespoons shelled unsalted sunflower seeds\n\n\n1 tablespoon ground flax meal\n\n\n1 tablespoon wheat germ\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon sea salt\n\n\n½ cup honey, warmed\n\n\n⅓ cup almond butter\n\n\n½ teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ⅓ cups rolled oats\n\n\n½ cup all-purpose flour\n\n\n½ cup vegan semi-sweet chocolate chips\n\n\n½ cup ground unsalted cashews\n\n\n2 tablespoons shelled unsalted sunflower seeds\n\n\n1 tablespoon ground flax meal\n\n\n1 tablespoon wheat germ\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon sea salt\n\n\n½ cup honey, warmed\n\n\n⅓ cup almond butter\n\n\n½ teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Line a 9x11-inch baking dish with aluminum foil."},{"recipe_directions":"Whisk oats, flour, chocolate chips, ground cashews, sunflower seeds, flax meal, wheat germ, cinnamon, and sea salt together in a large shallow bowl."},{"recipe_directions":"Stir warmed honey, almond butter, and vanilla extract together in a bowl until well-mixed. Pour honey mixture into oat mixture; stir until batter is well-combined. Turn batter out into prepared baking dish. Lay a sheet of waxed paper over batter and press firmly to evenly distribute in the baking dish. Remove and discard waxed paper."},{"recipe_directions":"Bake in the preheated oven until golden and fragrant, about 12 minutes. Pull aluminum foil from baking dish and cool bars in the aluminum foil for 10 minutes; remove and discard aluminum foil. Cut into bars."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Granola Bar Recipes"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"116\nCalories\n\n\n6g \nFat\n\n\n16g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699653763-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WDBVezvMrRwGTG7OCsaSHh3zmuM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/9044284-559342be8c2b4687a92ff3c29965d7b4.jpg"
@@ -2273,59 +2486,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228020/breakfast-brownies/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Breakfast Brownies</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n12 \n\n\nYield:\n1 dozen brownies"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups quick-cooking oats\n\n\n¾ cup brown sugar\n\n\n¾ cup flax seed meal\n\n\n½ cup gluten-free all purpose baking flour\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon salt\n\n\n1  banana, mashed\n\n\n¼ cup rice milk\n\n\n1  egg\n\n\n1 teaspoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups quick-cooking oats\n\n\n¾ cup brown sugar\n\n\n¾ cup flax seed meal\n\n\n½ cup gluten-free all purpose baking flour\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon ground cinnamon\n\n\n¼ teaspoon salt\n\n\n1  banana, mashed\n\n\n¼ cup rice milk\n\n\n1  egg\n\n\n1 teaspoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Lightly grease an 8x10-inch baking pan."},{"recipe_directions":"Mix oats, brown sugar, flax seed meal, flour, baking powder, cinnamon, and salt together in a bowl. Mix banana, rice milk, egg, and vanilla extract together in a separate bowl. Pour banana mixture into flour mixture; stir to combine. Pour batter into the prepared baking pan."},{"recipe_directions":"Bake brownies in the preheated oven until a toothpick inserted in the center comes out clean, about 20 minutes. Cover pan with a towel to hold in moisture and cool brownies for at least 5 minutes before serving."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"129\nCalories\n\n\n4g \nFat\n\n\n21g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699653771-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/1VsO536ycVjCZKUTZwQzqEa5sw0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1890x0:1892x2):format(webp)/5847546-6241d3c2a40a4572a27c28d679162216.jpg"
@@ -2338,59 +2547,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/268399/oatmeal-breakfast-cookies/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Oatmeal Breakfast Cookies</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n24 \n\n\nYield:\n24 cookies"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 ¼ cups old-fashioned oats, divided\n\n\n½ cup chopped walnuts\n\n\n⅓ cup raisins\n\n\n2 tablespoons ground flax seeds\n\n\n1 teaspoon ground cinnamon\n\n\n¼ teaspoon baking powder\n\n\n¼ teaspoon salt\n\n\n2  ripe bananas\n\n\n2  eggs\n\n\n⅓ cup unsweetened applesauce\n\n\n1 tablespoon honey\n\n\n1 tablespoon vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 ¼ cups old-fashioned oats, divided\n\n\n½ cup chopped walnuts\n\n\n⅓ cup raisins\n\n\n2 tablespoons ground flax seeds\n\n\n1 teaspoon ground cinnamon\n\n\n¼ teaspoon baking powder\n\n\n¼ teaspoon salt\n\n\n2  ripe bananas\n\n\n2  eggs\n\n\n⅓ cup unsweetened applesauce\n\n\n1 tablespoon honey\n\n\n1 tablespoon vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Line 2 baking sheets with parchment paper."},{"recipe_directions":"Grind 2 1/4 cups oats in a food processor to yield 2 cups ground oats. Add walnuts, raisins, flax seeds, cinnamon, baking powder, and salt. Stir in remaining 1 cup oats. Stir thoroughly with a spoon, but do not grind further."},{"recipe_directions":"Make a well in the center of oat mixture. Add bananas, eggs, applesauce, honey, and vanilla extract. Mash together and stir in oat mixture. Drop tablespoonfuls of cookie dough on the baking sheets."},{"recipe_directions":"Bake in the preheated oven until edges are set, about 14 minutes."},{"recipe_directions":"Substitute sweetened dried cranberries (such as Craisins) for the raisins if preferred."},{"recipe_directions":"Due to the lack of fat, the cookies will remain somewhat flat and may burn without the parchment paper."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"88\nCalories\n\n\n3g \nFat\n\n\n13g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699653778-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jfDaPEhsw1I0Ic_2HSQDCpbXgko=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1570056-77aa86eeb7b942b7abe0665bdfb37b41.jpg"
@@ -2403,59 +2608,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/218581/spicy-zucchini-oatmeal-cookies/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Spicy Zucchini Oatmeal Cookies</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n30 \n\n\nYield:\n30 cookies"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ¼ cups all-purpose flour\n\n\n1 ½ teaspoons ground cinnamon\n\n\n½ teaspoon baking soda\n\n\n¼ teaspoon ground cloves\n\n\n1 cup shredded zucchini\n\n\n⅔ cup packed brown sugar\n\n\n½ cup butter, softened\n\n\n1 large egg\n\n\n1 teaspoon vanilla extract\n\n\n1 cup quick cooking oats\n\n\n½ cup raisins"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ¼ cups all-purpose flour\n\n\n1 ½ teaspoons ground cinnamon\n\n\n½ teaspoon baking soda\n\n\n¼ teaspoon ground cloves\n\n\n1 cup shredded zucchini\n\n\n⅔ cup packed brown sugar\n\n\n½ cup butter, softened\n\n\n1 large egg\n\n\n1 teaspoon vanilla extract\n\n\n1 cup quick cooking oats\n\n\n½ cup raisins'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Grease two baking sheets."},{"recipe_directions":"Stir together flour, cinnamon, baking soda, and cloves in a medium bowl."},{"recipe_directions":"Wring zucchini in a clean towel to remove any excess moisture."},{"recipe_directions":"Beat brown sugar and butter in a large bowl with an electric mixer until creamy. Beat in egg and vanilla. Mix in flour mixture and oats until just incorporated. Stir in zucchini and raisins until just evenly combined. Drop rounded teaspoonfuls of dough 2 inches apart onto the prepared baking sheets."},{"recipe_directions":"Bake in the preheated oven until the bottom edges turn golden brown, 14 to 16 minutes."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Fruits and Vegetables"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"84\nCalories\n\n\n3g \nFat\n\n\n12g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699653784-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/kkrBAjRntYlta-ccBxcy1NTTejw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(2303x0:2305x2):format(webp)/4563643-8186df07eaab45f395377be42911be97.jpg"
@@ -2468,59 +2669,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/259308/applesauce-oatmeal-bites/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Applesauce Oatmeal Bites</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n12 bite-sized squares"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n2 cups quick-cooking oats\n\n\n1 cup applesauce"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n2 cups quick-cooking oats\n\n\n1 cup applesauce'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Lightly grease a baking dish with cooking spray."},{"recipe_directions":"Combine oats and applesauce in a medium bowl; mix until evenly moistened. Spread mixture into the prepared baking dish."},{"recipe_directions":"Bake in the preheated oven until no longer sticky, about 10 minutes. Flip baked oat mixture onto a work surface. Cut into 12 bite-sized squares and allow to cool."},{"recipe_directions":"You can substitute applesauce with any fruit purée."},{"recipe_directions":"You can line the baking pan with parchment paper instead of using grease."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"180\nCalories\n\n\n3g \nFat\n\n\n34g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699653789-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/puaqMo7yP_lrgv1nuWUEwziicVg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/8972214-5ebe05d36de145dcbed9a9fca1ee6754.jpg"
@@ -2533,59 +2730,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/144059/jumbo-breakfast-cookies/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Jumbo Breakfast Cookies</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n12 mins\n\n\nTotal Time:\n22 mins\n\n\nServings:\n24 \n\n\nYield:\n24 big cookies"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups white sugar\n\n\n1 cup peanut butter\n\n\n1 cup butter or margarine\n\n\n½ cup water\n\n\n2 tablespoons vanilla extract\n\n\n2  eggs\n\n\n2 ¼ cups all-purpose flour\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n1 ½ cups rolled oats\n\n\n1 ½ cups raisins\n\n\n6 cups toasted oat cereal rings (such as Cheerios®)"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups white sugar\n\n\n1 cup peanut butter\n\n\n1 cup butter or margarine\n\n\n½ cup water\n\n\n2 tablespoons vanilla extract\n\n\n2  eggs\n\n\n2 ¼ cups all-purpose flour\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n1 ½ cups rolled oats\n\n\n1 ½ cups raisins\n\n\n6 cups toasted oat cereal rings (such as Cheerios®)'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C)."},{"recipe_directions":"In a very large bowl, mix together the sugar, peanut butter, butter, water, vanilla and eggs until smooth. Combine the flour, baking soda and salt; stir into the batter. Mix in the oats and raisins, then carefully stir in the cereal. Drop 1/2 cupfuls of dough onto ungreased cookie sheets, spacing cookies about 4 inches apart. Flatten cookies to 1 inch thick."},{"recipe_directions":"Bake for 12 minutes in the preheated oven, until cookies are lightly browned at the edges. Let stand on the cookie sheets for 5 minutes before removing to wire racks to cool completely. Store at room temperature. I like to put each cookie into a sandwich bag which makes them easy to grab on the way out the door."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"325\nCalories\n\n\n14g \nFat\n\n\n45g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699653795-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2K2F-5tcXRY0CVkUq6OipXTJudo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/885973-9ea1d64f4fd0499abd3627a237dc0960.jpg"
@@ -2598,59 +2791,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/218671/whole-grain-breakfast-cookies/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Whole Grain Breakfast Cookies</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n18 \n\n\nYield:\n18 cookies"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup walnuts\n\n\n1 ½ cups old-fashioned rolled oats (not instant)\n\n\n⅓ cup whole wheat flour\n\n\n½ cup ground flax meal\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n1 teaspoon ground cinnamon\n\n\n½ cup almond butter\n\n\n¼ cup canola oil\n\n\n¼ cup blue agave nectar\n\n\n⅓ cup brown sugar\n\n\n1  egg\n\n\n1 teaspoon vanilla extract\n\n\n½ cup dried cherries\n\n\n1 cup semi-sweet chocolate chips"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup walnuts\n\n\n1 ½ cups old-fashioned rolled oats (not instant)\n\n\n⅓ cup whole wheat flour\n\n\n½ cup ground flax meal\n\n\n1 teaspoon baking soda\n\n\n½ teaspoon salt\n\n\n1 teaspoon ground cinnamon\n\n\n½ cup almond butter\n\n\n¼ cup canola oil\n\n\n¼ cup blue agave nectar\n\n\n⅓ cup brown sugar\n\n\n1  egg\n\n\n1 teaspoon vanilla extract\n\n\n½ cup dried cherries\n\n\n1 cup semi-sweet chocolate chips'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C). Line baking sheets with parchment paper."},{"recipe_directions":"Pulse the walnuts in a food processor several times to chop; continue processing until the walnuts are ground into flour; transfer to a bowl. Mix in the rolled oats, whole wheat flour, flax meal, baking soda, salt, and cinnamon until thoroughly combined."},{"recipe_directions":"Combine the almond butter, canola oil, agave nectar, brown sugar, egg, and vanilla extract in the food processor and process a few seconds to blend the ingredients well; transfer the almond butter mixture to a large bowl and fold in the dried cherries and chocolate chips. Mix the walnut-oatmeal mixture into the almond butter mixture (dough will be very thick)."},{"recipe_directions":"Scoop up heaping teaspoons of dough, and form into balls; lay the dough balls onto the prepared baking sheets, about 2 inches apart."},{"recipe_directions":"Bake in the preheated oven until lightly browned, 8 to 10 minutes. Remove from oven and flatten the cookies with a spatula. Allow to cool for about 5 minutes on the baking sheets before removing to finish cooling on wire racks."},{"recipe_directions":"The agave nectar (sometimes called blue agave, or raw agave syrup) comes from the agave plant. It is sweeter, less processed and has a lower glycemic index (releases glucose into the bloodstream at slower rate) than table sugar. You can substitute 1/3 cup brown sugar for agave (so a total of 2/3 cup brown sugar for this recipe), and add 1 egg white. I like the consistency of the cookie better with the agave."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"259\nCalories\n\n\n16g \nFat\n\n\n26g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699653801-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/17766/breakfast-and-brunch/breakfast-cookies/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/yYEDkPuCs9OQFaINmJdnDVnrxAE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/8148469-strawberry-oatmeal-breakfast-bars-Chef-John-1x1-1-28f5a703714e492aa4276782943eea3b.jpg"
@@ -2664,42 +2853,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/280321/strawberry-oatmeal-breakfast-bars/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Strawberry Oatmeal Breakfast Bars</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs\n\n\nServings:\n8 \n\n\nYield:\n8 bars"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound fresh strawberries\n\n\n½  lemon, juiced\n\n\n2 tablespoons white sugar\n\n\n2 teaspoons cornstarch\n\n\n1 ½ cups old-fashioned rolled oats\n\n\n½ cup all-purpose flour\n\n\n½ cup whole wheat flour\n\n\n½ cup packed light brown sugar\n\n\n½ teaspoon kosher salt\n\n\n¼ teaspoon ground ginger\n\n\n8 tablespoons unsalted butter, melted"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound fresh strawberries\n\n\n½  lemon, juiced\n\n\n2 tablespoons white sugar\n\n\n2 teaspoons cornstarch\n\n\n1 ½ cups old-fashioned rolled oats\n\n\n½ cup all-purpose flour\n\n\n½ cup whole wheat flour\n\n\n½ cup packed light brown sugar\n\n\n½ teaspoon kosher salt\n\n\n¼ teaspoon ground ginger\n\n\n8 tablespoons unsalted butter, melted'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 375 degrees F (190 degrees C). Butter a 9x12-inch baking dish."},{"recipe_directions":"Remove the green tops from strawberries using the tip of small, sharp knife or strawberry huller. Place the berries cut-side down on a work surface and cut in half. Slice each half lengthwise 3 to 5 times before turning and cutting across in a nice, uniform dice."},{"recipe_directions":"Combine diced strawberries, lemon juice, sugar, and cornstarch in a mixing bowl and stir until thoroughly combined and the cornstarch disappears. Set aside until needed."},{"recipe_directions":"Combine oats, all-purpose flour, whole wheat flour, brown sugar, salt, and ginger in a mixing bowl. Pour in melted butter and stir thoroughly until dry ingredients are evenly coated."},{"recipe_directions":"Transfer 60% of the oatmeal mixture into the prepared baking dish and spread out into an even layer. Press the mixture down with the back of a spoon or spatula to compress slightly."},{"recipe_directions":"Place strawberries over the top using a slotted spoon. Do not press down. Reserve any accumulated juices in the bowl. Top with remaining oatmeal mixture and press down lightly with the back of a spoon or spatula. Drizzle reserved juices on top."},{"recipe_directions":"Bake in the preheated oven until the top is golden brown, about 45 minutes. Press the top down with a spatula to compress slightly. Let cool completely, about 1 hour. Cut into bars and serve."},{"recipe_directions":"You can use all of one type of flour instead of using both all-purpose and whole wheat."},{"recipe_directions":"These can be made in an 8x8-inch baking or cake dish for a thicker bar. Since this will result in a thicker layer, it may need a few extra minutes of baking time."},{"recipe_directions":"If you want to make these more dessert-like, top with icing."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
-        </is>
-      </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"}]</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"299\nCalories\n\n\n13g \nFat\n\n\n44g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>